--- a/Part_2_tables/match_on_cited_df_grouped.xlsx
+++ b/Part_2_tables/match_on_cited_df_grouped.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_cited_df_grouped.xlsx
+++ b/Part_2_tables/match_on_cited_df_grouped.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>5883</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_cited_df_grouped.xlsx
+++ b/Part_2_tables/match_on_cited_df_grouped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>DOI</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4221</v>
+        <v>4111</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>41.13</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -459,6 +469,11 @@
       </c>
       <c r="B3" t="n">
         <v>5883</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_cited_df_grouped.xlsx
+++ b/Part_2_tables/match_on_cited_df_grouped.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>41.13</t>
+          <t>41.16</t>
         </is>
       </c>
     </row>
@@ -468,11 +468,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5883</v>
+        <v>5877</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>58.87</t>
+          <t>58.84</t>
         </is>
       </c>
     </row>
